--- a/doc/50_単体テスト(UT)/02_エビデンス/LSY_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
+++ b/doc/50_単体テスト(UT)/02_エビデンス/LSY_USER02_会員登録画面_エビデンス/打鍵後のUCL/【COL-PRO】単体テスト仕様書(UCL)_会員登録画面_表紙.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\colpro-workspace\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\RKK_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xylbk\Documents\certificate-online\doc\50_単体テスト(UT)\02_エビデンス\LSY_USER02_会員登録画面_エビデンス\打鍵後のUCL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B995E032-51B5-46CC-BB7F-0BF6223533B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701B027C-B2B0-47E4-AEFA-7F5ADF0A7C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ケース一覧" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -258,7 +258,7 @@
         <b/>
         <sz val="14"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -282,7 +282,7 @@
         <b/>
         <sz val="14"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -397,22 +397,33 @@
     <t>A-画面レイアウト.xlsx</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>EB劉</t>
+    <rPh sb="2" eb="3">
+      <t>リ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-画面項目確認.xlsx</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -421,7 +432,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -429,14 +440,14 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -444,7 +455,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -899,24 +910,24 @@
   <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.796875" customWidth="1"/>
-    <col min="2" max="2" width="6.19921875" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" customWidth="1"/>
-    <col min="4" max="4" width="50.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="6.25" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="50.625" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="8" width="40.59765625" customWidth="1"/>
+    <col min="7" max="8" width="40.625" customWidth="1"/>
     <col min="9" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="40.59765625" customWidth="1"/>
-    <col min="12" max="12" width="32.3984375" customWidth="1"/>
+    <col min="11" max="11" width="40.625" customWidth="1"/>
+    <col min="12" max="12" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="10" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" s="10" customFormat="1" ht="54.6" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -951,7 +962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:12" ht="48" customHeight="1">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -984,7 +995,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12" ht="48" customHeight="1">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1006,12 +1017,18 @@
       <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="I4" s="11">
+        <v>45069</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" ht="28.5">
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -1038,7 +1055,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="2:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:12" ht="28.5">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1065,7 +1082,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="2:12" ht="122.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" ht="122.45" customHeight="1">
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -1092,7 +1109,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:12" ht="58.15" customHeight="1">
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -1119,7 +1136,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" ht="121.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" ht="121.9" customHeight="1">
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -1146,7 +1163,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1159,7 +1176,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:12">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1172,7 +1189,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:12">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1185,7 +1202,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1198,7 +1215,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:12">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1211,7 +1228,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:12">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1224,7 +1241,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:12">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1237,7 +1254,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1250,7 +1267,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:12">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1263,7 +1280,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1276,7 +1293,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1289,7 +1306,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1302,7 +1319,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1315,7 +1332,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
